--- a/templates/dataplant/Plant_source_material.xlsx
+++ b/templates/dataplant/Plant_source_material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1647624-EEC8-47ED-8388-C10025DFF4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2BB8E-6614-43E5-B67B-41CA57618912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Source Name</t>
   </si>
@@ -239,12 +239,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>plant material</t>
-  </si>
-  <si>
-    <t>plant samples</t>
-  </si>
-  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
@@ -315,6 +309,18 @@
   </si>
   <si>
     <t>Plant source material</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>NCIT:C25662</t>
+  </si>
+  <si>
+    <t>Biological Material</t>
+  </si>
+  <si>
+    <t>MIAPPE:0039</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7F0157-518A-4BBB-A40F-3A4F9D60F0EC}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1120,7 @@
     <col min="5" max="5" width="40.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1122,23 +1128,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1162,158 +1168,155 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10"/>
     </row>

--- a/templates/dataplant/Plant_source_material.xlsx
+++ b/templates/dataplant/Plant_source_material.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2BB8E-6614-43E5-B67B-41CA57618912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB3350-CAFF-4467-90AC-919F74196FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B6C831B5-1971-5D49-B727-8B171A92DF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_source" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>

--- a/templates/dataplant/Plant_source_material.xlsx
+++ b/templates/dataplant/Plant_source_material.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -170,6 +170,60 @@
     <t>Term Accession Number (OBI:0100026)</t>
   </si>
   <si>
+    <t>Characteristic [cultivar]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0005136)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0005136)</t>
+  </si>
+  <si>
+    <t>Characteristic [ecotype]</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0000434)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0000434)</t>
+  </si>
+  <si>
+    <t>Characteristic [population]</t>
+  </si>
+  <si>
+    <t>Term Source REF (OBI:0000181)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0000181)</t>
+  </si>
+  <si>
+    <t>Parameter [geographic location]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GAZ:00000448)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GAZ:00000448)</t>
+  </si>
+  <si>
+    <t>Parameter [latitude]</t>
+  </si>
+  <si>
+    <t>Term Source REF (SIO:000319)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (SIO:000319)</t>
+  </si>
+  <si>
+    <t>Parameter [longitude]</t>
+  </si>
+  <si>
+    <t>Term Source REF (SIO:000318)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (SIO:000318)</t>
+  </si>
+  <si>
     <t>Characteristic [organism part]</t>
   </si>
   <si>
@@ -219,6 +273,21 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_4577</t>
+  </si>
+  <si>
+    <t>B73</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16636</t>
+  </si>
+  <si>
+    <t>+50.55</t>
+  </si>
+  <si>
+    <t>+6.21</t>
   </si>
   <si>
     <t>leaf</t>
@@ -295,8 +364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Q2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:Q2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AI2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AI2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -314,8 +383,26 @@
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+    <filterColumn colId="24" hiddenButton="1"/>
+    <filterColumn colId="25" hiddenButton="1"/>
+    <filterColumn colId="26" hiddenButton="1"/>
+    <filterColumn colId="27" hiddenButton="1"/>
+    <filterColumn colId="28" hiddenButton="1"/>
+    <filterColumn colId="29" hiddenButton="1"/>
+    <filterColumn colId="30" hiddenButton="1"/>
+    <filterColumn colId="31" hiddenButton="1"/>
+    <filterColumn colId="32" hiddenButton="1"/>
+    <filterColumn colId="33" hiddenButton="1"/>
+    <filterColumn colId="34" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="17">
+  <tableColumns count="35">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
@@ -323,16 +410,34 @@
     <tableColumn id="5" name="Characteristic [organism]" totalsRowFunction="none"/>
     <tableColumn id="6" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Characteristic [organism part]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (EFO:0000635)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (EFO:0000635)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Characteristic [plant age]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:0000033)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:0000033)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Characteristic [genotype]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (EFO:0000513)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (EFO:0000513)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [cultivar]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (EFO:0005136)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (EFO:0005136)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Characteristic [ecotype]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (EFO:0000434)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (EFO:0000434)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Characteristic [population]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (OBI:0000181)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (OBI:0000181)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [geographic location]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (GAZ:00000448)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (GAZ:00000448)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [latitude]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Parameter [longitude]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Characteristic [organism part]" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (EFO:0000635)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (EFO:0000635)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Characteristic [plant age]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (DPBO:0000033)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (DPBO:0000033)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Characteristic [genotype]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Term Source REF (EFO:0000513)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Accession Number (EFO:0000513)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AI2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -892,58 +997,166 @@
       <c r="Q1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Plant_source_material.xlsx
+++ b/templates/dataplant/Plant_source_material.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
@@ -197,7 +197,7 @@
     <t>Term Accession Number (OBI:0000181)</t>
   </si>
   <si>
-    <t>Parameter [geographic location]</t>
+    <t>Characteristic [geographic location]</t>
   </si>
   <si>
     <t>Term Source REF (GAZ:00000448)</t>
@@ -206,7 +206,7 @@
     <t>Term Accession Number (GAZ:00000448)</t>
   </si>
   <si>
-    <t>Parameter [latitude]</t>
+    <t>Characteristic [latitude]</t>
   </si>
   <si>
     <t>Term Source REF (SIO:000319)</t>
@@ -215,7 +215,7 @@
     <t>Term Accession Number (SIO:000319)</t>
   </si>
   <si>
-    <t>Parameter [longitude]</t>
+    <t>Characteristic [longitude]</t>
   </si>
   <si>
     <t>Term Source REF (SIO:000318)</t>
@@ -263,7 +263,7 @@
     <t>DPBO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000169</t>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000169</t>
   </si>
   <si>
     <t>Zea mays</t>
@@ -281,7 +281,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16636</t>
+    <t>https://bioregistry.io/NCIT:C16636</t>
   </si>
   <si>
     <t>+50.55</t>
@@ -296,7 +296,7 @@
     <t>PO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/PO_0025034</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/po/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FPO_0025034</t>
   </si>
   <si>
     <t>50 days</t>
@@ -308,7 +308,7 @@
     <t>EFO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0005168</t>
+    <t>https://bioregistry.io/EFO:0005168</t>
   </si>
 </sst>
 </file>
@@ -419,13 +419,13 @@
     <tableColumn id="14" name="Characteristic [population]" totalsRowFunction="none"/>
     <tableColumn id="15" name="Term Source REF (OBI:0000181)" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Accession Number (OBI:0000181)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [geographic location]" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Characteristic [geographic location]" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Source REF (GAZ:00000448)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (GAZ:00000448)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [latitude]" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Characteristic [latitude]" totalsRowFunction="none"/>
     <tableColumn id="21" name="Term Source REF (SIO:000319)" totalsRowFunction="none"/>
     <tableColumn id="22" name="Term Accession Number (SIO:000319)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [longitude]" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Characteristic [longitude]" totalsRowFunction="none"/>
     <tableColumn id="24" name="Term Source REF (SIO:000318)" totalsRowFunction="none"/>
     <tableColumn id="25" name="Term Accession Number (SIO:000318)" totalsRowFunction="none"/>
     <tableColumn id="26" name="Characteristic [organism part]" totalsRowFunction="none"/>
